--- a/Code/Results/Cases/Case_5_183/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_183/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.4234750373145</v>
+        <v>16.42638983778676</v>
       </c>
       <c r="C2">
-        <v>19.99886229031786</v>
+        <v>10.29331459755666</v>
       </c>
       <c r="D2">
-        <v>9.388288595591627</v>
+        <v>7.30167665320554</v>
       </c>
       <c r="E2">
-        <v>30.77377411776597</v>
+        <v>16.45433944982152</v>
       </c>
       <c r="F2">
-        <v>63.56182861480239</v>
+        <v>43.42741042073344</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.38484812770647</v>
+        <v>15.82553249713264</v>
       </c>
       <c r="C3">
-        <v>18.46397124672549</v>
+        <v>9.688831710892437</v>
       </c>
       <c r="D3">
-        <v>8.849519637809431</v>
+        <v>7.136393549518607</v>
       </c>
       <c r="E3">
-        <v>28.31226926357537</v>
+        <v>15.51418462611142</v>
       </c>
       <c r="F3">
-        <v>59.19036081192131</v>
+        <v>41.92871716270902</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.08887446149555</v>
+        <v>15.45323296866087</v>
       </c>
       <c r="C4">
-        <v>17.49128058524141</v>
+        <v>9.302815878495984</v>
       </c>
       <c r="D4">
-        <v>8.517092694060617</v>
+        <v>7.033694688316622</v>
       </c>
       <c r="E4">
-        <v>26.76069239565595</v>
+        <v>14.91370740114557</v>
       </c>
       <c r="F4">
-        <v>56.45050333521705</v>
+        <v>40.99073186571778</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.5488165671451</v>
+        <v>15.30097127547397</v>
       </c>
       <c r="C5">
-        <v>17.08658420349867</v>
+        <v>9.141972636156947</v>
       </c>
       <c r="D5">
-        <v>8.381070846560407</v>
+        <v>6.991576212751836</v>
       </c>
       <c r="E5">
-        <v>26.11693298543749</v>
+        <v>14.66344036576686</v>
       </c>
       <c r="F5">
-        <v>55.31894217127872</v>
+        <v>40.60455364992115</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.45839791254524</v>
+        <v>15.27566457246559</v>
       </c>
       <c r="C6">
-        <v>17.01886368656673</v>
+        <v>9.115057593640415</v>
       </c>
       <c r="D6">
-        <v>8.358447793206549</v>
+        <v>6.984567413363458</v>
       </c>
       <c r="E6">
-        <v>26.00930803074004</v>
+        <v>14.62155641059596</v>
       </c>
       <c r="F6">
-        <v>55.13011678721339</v>
+        <v>40.54020732386432</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.08164037263802</v>
+        <v>15.4511813125667</v>
       </c>
       <c r="C7">
-        <v>17.48585724081155</v>
+        <v>9.300660726981791</v>
       </c>
       <c r="D7">
-        <v>8.515260655957015</v>
+        <v>7.033127697937479</v>
       </c>
       <c r="E7">
-        <v>26.75205855939405</v>
+        <v>14.91035435876094</v>
       </c>
       <c r="F7">
-        <v>56.43530467096087</v>
+        <v>40.98553895853991</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.72920989287836</v>
+        <v>16.22008705086596</v>
       </c>
       <c r="C8">
-        <v>19.47544971045623</v>
+        <v>10.08808041295122</v>
       </c>
       <c r="D8">
-        <v>9.202748790060806</v>
+        <v>7.244961183216043</v>
       </c>
       <c r="E8">
-        <v>29.93249018775551</v>
+        <v>16.13513958936087</v>
       </c>
       <c r="F8">
-        <v>62.06535951554753</v>
+        <v>42.91465571275551</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.6151209524473</v>
+        <v>17.68917423310451</v>
       </c>
       <c r="C9">
-        <v>23.17640264765306</v>
+        <v>11.65565728110506</v>
       </c>
       <c r="D9">
-        <v>10.54862083012398</v>
+        <v>7.649156145900511</v>
       </c>
       <c r="E9">
-        <v>35.92794154082256</v>
+        <v>18.42300014397892</v>
       </c>
       <c r="F9">
-        <v>72.75185367649347</v>
+        <v>46.53555840643371</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.10049648182896</v>
+        <v>18.73062856694719</v>
       </c>
       <c r="C10">
-        <v>25.84552666713169</v>
+        <v>12.72416089805899</v>
       </c>
       <c r="D10">
-        <v>11.55880171813866</v>
+        <v>7.937297104013416</v>
       </c>
       <c r="E10">
-        <v>40.33092135322983</v>
+        <v>20.09240612184273</v>
       </c>
       <c r="F10">
-        <v>80.76514898864107</v>
+        <v>49.07208829654715</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.69037928621933</v>
+        <v>19.19367544082326</v>
       </c>
       <c r="C11">
-        <v>27.07283950664322</v>
+        <v>13.18385019090909</v>
       </c>
       <c r="D11">
-        <v>12.03142000939431</v>
+        <v>8.066081172719578</v>
       </c>
       <c r="E11">
-        <v>42.38294602322394</v>
+        <v>20.81095225300755</v>
       </c>
       <c r="F11">
-        <v>84.44266199602254</v>
+        <v>50.19475926645455</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.29636231448981</v>
+        <v>19.36730150894325</v>
       </c>
       <c r="C12">
-        <v>27.54243372989783</v>
+        <v>13.3541507046749</v>
       </c>
       <c r="D12">
-        <v>12.21335939014254</v>
+        <v>8.114489260347284</v>
       </c>
       <c r="E12">
-        <v>43.17331847737465</v>
+        <v>21.07721539202315</v>
       </c>
       <c r="F12">
-        <v>85.84726717030948</v>
+        <v>50.61508653765809</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.16561187650134</v>
+        <v>19.32998712384931</v>
       </c>
       <c r="C13">
-        <v>27.44102345508451</v>
+        <v>13.31764096272882</v>
       </c>
       <c r="D13">
-        <v>12.17402115518748</v>
+        <v>8.104080161986687</v>
       </c>
       <c r="E13">
-        <v>43.00237729302152</v>
+        <v>21.02012967387631</v>
       </c>
       <c r="F13">
-        <v>85.54407671466608</v>
+        <v>50.52477981594377</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.74013170463823</v>
+        <v>19.20799517259175</v>
       </c>
       <c r="C14">
-        <v>27.11135533341069</v>
+        <v>13.19793643458213</v>
       </c>
       <c r="D14">
-        <v>12.04632091510747</v>
+        <v>8.07007110694499</v>
       </c>
       <c r="E14">
-        <v>42.44765844908599</v>
+        <v>20.83297457037248</v>
       </c>
       <c r="F14">
-        <v>84.55792630318818</v>
+        <v>50.22943779388444</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.48014364190327</v>
+        <v>19.13304269629683</v>
       </c>
       <c r="C15">
-        <v>26.91016096761659</v>
+        <v>13.12412308575819</v>
       </c>
       <c r="D15">
-        <v>11.96852738362011</v>
+        <v>8.049191890136083</v>
       </c>
       <c r="E15">
-        <v>42.1098404086239</v>
+        <v>20.7175780972205</v>
       </c>
       <c r="F15">
-        <v>83.95571276964839</v>
+        <v>50.04789795263731</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.99693745489056</v>
+        <v>18.70013593250552</v>
       </c>
       <c r="C16">
-        <v>25.76581099699495</v>
+        <v>12.69358994218468</v>
       </c>
       <c r="D16">
-        <v>11.52826172298007</v>
+        <v>7.928832017558936</v>
       </c>
       <c r="E16">
-        <v>40.19828504984866</v>
+        <v>20.04462861492908</v>
       </c>
       <c r="F16">
-        <v>80.52603259143342</v>
+        <v>48.99806319788954</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.09015736458159</v>
+        <v>18.43168260467048</v>
       </c>
       <c r="C17">
-        <v>25.06893172664895</v>
+        <v>12.42272897323808</v>
       </c>
       <c r="D17">
-        <v>11.26217231165911</v>
+        <v>7.854385926304401</v>
       </c>
       <c r="E17">
-        <v>39.04192034363454</v>
+        <v>19.62135747802872</v>
       </c>
       <c r="F17">
-        <v>78.43472975276252</v>
+        <v>48.34579288210324</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.56876172698243</v>
+        <v>18.27627591557962</v>
       </c>
       <c r="C18">
-        <v>24.66911465548086</v>
+        <v>12.26445279453743</v>
       </c>
       <c r="D18">
-        <v>11.11027157901295</v>
+        <v>7.811352361224981</v>
       </c>
       <c r="E18">
-        <v>38.38094843792835</v>
+        <v>19.37405318474894</v>
       </c>
       <c r="F18">
-        <v>77.23433467117515</v>
+        <v>47.96770302184997</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.39217126398298</v>
+        <v>18.22349204673524</v>
       </c>
       <c r="C19">
-        <v>24.53384343894225</v>
+        <v>12.21043598561017</v>
       </c>
       <c r="D19">
-        <v>11.05901096618923</v>
+        <v>7.796746104326484</v>
       </c>
       <c r="E19">
-        <v>38.15771199574974</v>
+        <v>19.28965765983189</v>
       </c>
       <c r="F19">
-        <v>76.82814258416828</v>
+        <v>47.83919683658041</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.18664885298153</v>
+        <v>18.46036472424897</v>
       </c>
       <c r="C20">
-        <v>25.14299322364008</v>
+        <v>12.45181954634602</v>
       </c>
       <c r="D20">
-        <v>11.29037273589011</v>
+        <v>7.862333226540804</v>
       </c>
       <c r="E20">
-        <v>39.16455127020188</v>
+        <v>19.6668135541616</v>
       </c>
       <c r="F20">
-        <v>78.65705230527773</v>
+        <v>48.41553291880169</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.86496630445502</v>
+        <v>19.24387515290404</v>
       </c>
       <c r="C21">
-        <v>27.20802630276621</v>
+        <v>13.23319881649802</v>
       </c>
       <c r="D21">
-        <v>12.08373806170879</v>
+        <v>8.080070379528696</v>
       </c>
       <c r="E21">
-        <v>42.61016862356581</v>
+        <v>20.88810456907759</v>
       </c>
       <c r="F21">
-        <v>84.84718327092956</v>
+        <v>50.3163196081298</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.64089250772431</v>
+        <v>19.74585311027923</v>
       </c>
       <c r="C22">
-        <v>28.58817570060622</v>
+        <v>13.72188835381062</v>
       </c>
       <c r="D22">
-        <v>12.62043690929643</v>
+        <v>8.220265545473767</v>
       </c>
       <c r="E22">
-        <v>44.94478676273031</v>
+        <v>21.65229987435612</v>
       </c>
       <c r="F22">
-        <v>88.96865687882396</v>
+        <v>51.53047303727401</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.68925693826737</v>
+        <v>19.47891475148388</v>
       </c>
       <c r="C23">
-        <v>27.84746056301008</v>
+        <v>13.46307063694064</v>
       </c>
       <c r="D23">
-        <v>12.33183565613295</v>
+        <v>8.145643027621672</v>
       </c>
       <c r="E23">
-        <v>43.68836261057393</v>
+        <v>21.24753019877283</v>
       </c>
       <c r="F23">
-        <v>86.75872425500344</v>
+        <v>50.8851241141432</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.14302551706285</v>
+        <v>18.4474008547955</v>
       </c>
       <c r="C24">
-        <v>25.10950764703843</v>
+        <v>12.43867565670082</v>
       </c>
       <c r="D24">
-        <v>11.27762004292854</v>
+        <v>7.858740977155679</v>
       </c>
       <c r="E24">
-        <v>39.10909830811917</v>
+        <v>19.64627520016255</v>
       </c>
       <c r="F24">
-        <v>78.55653480363642</v>
+        <v>48.38401305149029</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.31887174341284</v>
+        <v>17.29746576781898</v>
       </c>
       <c r="C25">
-        <v>22.19033144700976</v>
+        <v>11.23866050126309</v>
       </c>
       <c r="D25">
-        <v>10.18291235798907</v>
+        <v>7.541222888398656</v>
       </c>
       <c r="E25">
-        <v>34.31926875976241</v>
+        <v>17.77169398848133</v>
       </c>
       <c r="F25">
-        <v>69.87664922851232</v>
+        <v>45.57610727184977</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_183/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_183/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.42638983778676</v>
+        <v>26.42347503731429</v>
       </c>
       <c r="C2">
-        <v>10.29331459755666</v>
+        <v>19.99886229031765</v>
       </c>
       <c r="D2">
-        <v>7.30167665320554</v>
+        <v>9.388288595591561</v>
       </c>
       <c r="E2">
-        <v>16.45433944982152</v>
+        <v>30.77377411776587</v>
       </c>
       <c r="F2">
-        <v>43.42741042073344</v>
+        <v>63.56182861480174</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.82553249713264</v>
+        <v>24.38484812770638</v>
       </c>
       <c r="C3">
-        <v>9.688831710892437</v>
+        <v>18.46397124672555</v>
       </c>
       <c r="D3">
-        <v>7.136393549518607</v>
+        <v>8.849519637809475</v>
       </c>
       <c r="E3">
-        <v>15.51418462611142</v>
+        <v>28.31226926357528</v>
       </c>
       <c r="F3">
-        <v>41.92871716270902</v>
+        <v>59.19036081192125</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.45323296866087</v>
+        <v>23.08887446149549</v>
       </c>
       <c r="C4">
-        <v>9.302815878495984</v>
+        <v>17.49128058524117</v>
       </c>
       <c r="D4">
-        <v>7.033694688316622</v>
+        <v>8.5170926940605</v>
       </c>
       <c r="E4">
-        <v>14.91370740114557</v>
+        <v>26.76069239565582</v>
       </c>
       <c r="F4">
-        <v>40.99073186571778</v>
+        <v>56.45050333521635</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.30097127547397</v>
+        <v>22.5488165671452</v>
       </c>
       <c r="C5">
-        <v>9.141972636156947</v>
+        <v>17.0865842034985</v>
       </c>
       <c r="D5">
-        <v>6.991576212751836</v>
+        <v>8.381070846560414</v>
       </c>
       <c r="E5">
-        <v>14.66344036576686</v>
+        <v>26.11693298543749</v>
       </c>
       <c r="F5">
-        <v>40.60455364992115</v>
+        <v>55.31894217127885</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.27566457246559</v>
+        <v>22.45839791254529</v>
       </c>
       <c r="C6">
-        <v>9.115057593640415</v>
+        <v>17.01886368656693</v>
       </c>
       <c r="D6">
-        <v>6.984567413363458</v>
+        <v>8.358447793206571</v>
       </c>
       <c r="E6">
-        <v>14.62155641059596</v>
+        <v>26.00930803074007</v>
       </c>
       <c r="F6">
-        <v>40.54020732386432</v>
+        <v>55.13011678721351</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.4511813125667</v>
+        <v>23.08164037263805</v>
       </c>
       <c r="C7">
-        <v>9.300660726981791</v>
+        <v>17.4858572408119</v>
       </c>
       <c r="D7">
-        <v>7.033127697937479</v>
+        <v>8.515260655957032</v>
       </c>
       <c r="E7">
-        <v>14.91035435876094</v>
+        <v>26.75205855939403</v>
       </c>
       <c r="F7">
-        <v>40.98553895853991</v>
+        <v>56.43530467096111</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.22008705086596</v>
+        <v>25.72920989287825</v>
       </c>
       <c r="C8">
-        <v>10.08808041295122</v>
+        <v>19.47544971045632</v>
       </c>
       <c r="D8">
-        <v>7.244961183216043</v>
+        <v>9.202748790060824</v>
       </c>
       <c r="E8">
-        <v>16.13513958936087</v>
+        <v>29.93249018775545</v>
       </c>
       <c r="F8">
-        <v>42.91465571275551</v>
+        <v>62.06535951554758</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.68917423310451</v>
+        <v>30.61512095244731</v>
       </c>
       <c r="C9">
-        <v>11.65565728110506</v>
+        <v>23.17640264765281</v>
       </c>
       <c r="D9">
-        <v>7.649156145900511</v>
+        <v>10.54862083012397</v>
       </c>
       <c r="E9">
-        <v>18.42300014397892</v>
+        <v>35.92794154082248</v>
       </c>
       <c r="F9">
-        <v>46.53555840643371</v>
+        <v>72.75185367649365</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.73062856694719</v>
+        <v>34.10049648182904</v>
       </c>
       <c r="C10">
-        <v>12.72416089805899</v>
+        <v>25.84552666713169</v>
       </c>
       <c r="D10">
-        <v>7.937297104013416</v>
+        <v>11.55880171813876</v>
       </c>
       <c r="E10">
-        <v>20.09240612184273</v>
+        <v>40.33092135322991</v>
       </c>
       <c r="F10">
-        <v>49.07208829654715</v>
+        <v>80.7651489886414</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.19367544082326</v>
+        <v>35.69037928621962</v>
       </c>
       <c r="C11">
-        <v>13.18385019090909</v>
+        <v>27.0728395066433</v>
       </c>
       <c r="D11">
-        <v>8.066081172719578</v>
+        <v>12.03142000939442</v>
       </c>
       <c r="E11">
-        <v>20.81095225300755</v>
+        <v>42.38294602322421</v>
       </c>
       <c r="F11">
-        <v>50.19475926645455</v>
+        <v>84.44266199602316</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.36730150894325</v>
+        <v>36.29636231448984</v>
       </c>
       <c r="C12">
-        <v>13.3541507046749</v>
+        <v>27.5424337298978</v>
       </c>
       <c r="D12">
-        <v>8.114489260347284</v>
+        <v>12.2133593901425</v>
       </c>
       <c r="E12">
-        <v>21.07721539202315</v>
+        <v>43.17331847737458</v>
       </c>
       <c r="F12">
-        <v>50.61508653765809</v>
+        <v>85.84726717030942</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.32998712384931</v>
+        <v>36.16561187650132</v>
       </c>
       <c r="C13">
-        <v>13.31764096272882</v>
+        <v>27.4410234550847</v>
       </c>
       <c r="D13">
-        <v>8.104080161986687</v>
+        <v>12.17402115518742</v>
       </c>
       <c r="E13">
-        <v>21.02012967387631</v>
+        <v>43.00237729302156</v>
       </c>
       <c r="F13">
-        <v>50.52477981594377</v>
+        <v>85.54407671466596</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.20799517259175</v>
+        <v>35.74013170463798</v>
       </c>
       <c r="C14">
-        <v>13.19793643458213</v>
+        <v>27.11135533341043</v>
       </c>
       <c r="D14">
-        <v>8.07007110694499</v>
+        <v>12.04632091510731</v>
       </c>
       <c r="E14">
-        <v>20.83297457037248</v>
+        <v>42.44765844908596</v>
       </c>
       <c r="F14">
-        <v>50.22943779388444</v>
+        <v>84.5579263031873</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.13304269629683</v>
+        <v>35.4801436419034</v>
       </c>
       <c r="C15">
-        <v>13.12412308575819</v>
+        <v>26.91016096761689</v>
       </c>
       <c r="D15">
-        <v>8.049191890136083</v>
+        <v>11.96852738362011</v>
       </c>
       <c r="E15">
-        <v>20.7175780972205</v>
+        <v>42.10984040862385</v>
       </c>
       <c r="F15">
-        <v>50.04789795263731</v>
+        <v>83.95571276964834</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.70013593250552</v>
+        <v>33.99693745489048</v>
       </c>
       <c r="C16">
-        <v>12.69358994218468</v>
+        <v>25.76581099699472</v>
       </c>
       <c r="D16">
-        <v>7.928832017558936</v>
+        <v>11.52826172298017</v>
       </c>
       <c r="E16">
-        <v>20.04462861492908</v>
+        <v>40.19828504984863</v>
       </c>
       <c r="F16">
-        <v>48.99806319788954</v>
+        <v>80.52603259143365</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.43168260467048</v>
+        <v>33.09015736458169</v>
       </c>
       <c r="C17">
-        <v>12.42272897323808</v>
+        <v>25.06893172664898</v>
       </c>
       <c r="D17">
-        <v>7.854385926304401</v>
+        <v>11.26217231165914</v>
       </c>
       <c r="E17">
-        <v>19.62135747802872</v>
+        <v>39.0419203436346</v>
       </c>
       <c r="F17">
-        <v>48.34579288210324</v>
+        <v>78.43472975276291</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.27627591557962</v>
+        <v>32.56876172698266</v>
       </c>
       <c r="C18">
-        <v>12.26445279453743</v>
+        <v>24.66911465548079</v>
       </c>
       <c r="D18">
-        <v>7.811352361224981</v>
+        <v>11.11027157901315</v>
       </c>
       <c r="E18">
-        <v>19.37405318474894</v>
+        <v>38.38094843792849</v>
       </c>
       <c r="F18">
-        <v>47.96770302184997</v>
+        <v>77.23433467117627</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.22349204673524</v>
+        <v>32.39217126398312</v>
       </c>
       <c r="C19">
-        <v>12.21043598561017</v>
+        <v>24.53384343894224</v>
       </c>
       <c r="D19">
-        <v>7.796746104326484</v>
+        <v>11.05901096618939</v>
       </c>
       <c r="E19">
-        <v>19.28965765983189</v>
+        <v>38.15771199574998</v>
       </c>
       <c r="F19">
-        <v>47.83919683658041</v>
+        <v>76.82814258416938</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.46036472424897</v>
+        <v>33.1866488529815</v>
       </c>
       <c r="C20">
-        <v>12.45181954634602</v>
+        <v>25.14299322364014</v>
       </c>
       <c r="D20">
-        <v>7.862333226540804</v>
+        <v>11.29037273589021</v>
       </c>
       <c r="E20">
-        <v>19.6668135541616</v>
+        <v>39.16455127020176</v>
       </c>
       <c r="F20">
-        <v>48.41553291880169</v>
+        <v>78.6570523052777</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.24387515290404</v>
+        <v>35.86496630445517</v>
       </c>
       <c r="C21">
-        <v>13.23319881649802</v>
+        <v>27.20802630276624</v>
       </c>
       <c r="D21">
-        <v>8.080070379528696</v>
+        <v>12.08373806170882</v>
       </c>
       <c r="E21">
-        <v>20.88810456907759</v>
+        <v>42.6101686235658</v>
       </c>
       <c r="F21">
-        <v>50.3163196081298</v>
+        <v>84.84718327092978</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.74585311027923</v>
+        <v>37.6408925077243</v>
       </c>
       <c r="C22">
-        <v>13.72188835381062</v>
+        <v>28.58817570060632</v>
       </c>
       <c r="D22">
-        <v>8.220265545473767</v>
+        <v>12.62043690929638</v>
       </c>
       <c r="E22">
-        <v>21.65229987435612</v>
+        <v>44.94478676273031</v>
       </c>
       <c r="F22">
-        <v>51.53047303727401</v>
+        <v>88.96865687882394</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.47891475148388</v>
+        <v>36.68925693826734</v>
       </c>
       <c r="C23">
-        <v>13.46307063694064</v>
+        <v>27.84746056300988</v>
       </c>
       <c r="D23">
-        <v>8.145643027621672</v>
+        <v>12.33183565613301</v>
       </c>
       <c r="E23">
-        <v>21.24753019877283</v>
+        <v>43.68836261057383</v>
       </c>
       <c r="F23">
-        <v>50.8851241141432</v>
+        <v>86.75872425500366</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.4474008547955</v>
+        <v>33.14302551706284</v>
       </c>
       <c r="C24">
-        <v>12.43867565670082</v>
+        <v>25.10950764703824</v>
       </c>
       <c r="D24">
-        <v>7.858740977155679</v>
+        <v>11.27762004292856</v>
       </c>
       <c r="E24">
-        <v>19.64627520016255</v>
+        <v>39.10909830811909</v>
       </c>
       <c r="F24">
-        <v>48.38401305149029</v>
+        <v>78.55653480363637</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.29746576781898</v>
+        <v>29.31887174341286</v>
       </c>
       <c r="C25">
-        <v>11.23866050126309</v>
+        <v>22.19033144700975</v>
       </c>
       <c r="D25">
-        <v>7.541222888398656</v>
+        <v>10.18291235798912</v>
       </c>
       <c r="E25">
-        <v>17.77169398848133</v>
+        <v>34.31926875976249</v>
       </c>
       <c r="F25">
-        <v>45.57610727184977</v>
+        <v>69.87664922851232</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
